--- a/Documentation/TimeSheets/week11/Huy Nguyen Week 11Timesheet .xlsx
+++ b/Documentation/TimeSheets/week11/Huy Nguyen Week 11Timesheet .xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\3. Adelaide - Source Code\2017-S2-SEP-PG29\Documentation\TimeSheets\week11\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\issaclee\Desktop\SEP\2017-S2-SEP-PG29\Documentation\TimeSheets\week11\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="576" yWindow="456" windowWidth="20736" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="580" yWindow="460" windowWidth="20740" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Time Sheet" sheetId="1" r:id="rId1"/>
@@ -751,22 +751,22 @@
   </sheetPr>
   <dimension ref="B1:H20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="2.6640625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="45.44140625" style="2" customWidth="1"/>
-    <col min="3" max="5" width="20.6640625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="15.44140625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="18.6640625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="2.6640625" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="8.77734375" style="2"/>
+    <col min="1" max="1" width="2.6328125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="45.453125" style="2" customWidth="1"/>
+    <col min="3" max="5" width="20.6328125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="15.453125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="18.6328125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="2.6328125" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="8.81640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="34.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="2:8" ht="35" customHeight="1" thickTop="1" x14ac:dyDescent="0.7">
       <c r="B1" s="17" t="s">
         <v>19</v>
       </c>
@@ -777,7 +777,7 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C2" s="2" t="s">
         <v>12</v>
       </c>
@@ -786,7 +786,7 @@
       </c>
       <c r="E2" s="4"/>
     </row>
-    <row r="3" spans="2:8" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:8" ht="35" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B3" s="5" t="s">
         <v>9</v>
       </c>
@@ -794,7 +794,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="7" t="s">
         <v>7</v>
       </c>
@@ -808,7 +808,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B5" s="8">
         <v>12</v>
       </c>
@@ -825,7 +825,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:8" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="9" t="s">
         <v>10</v>
       </c>
@@ -842,7 +842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:8" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
       <c r="D7" s="11" t="s">
@@ -856,7 +856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:8" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="15" t="s">
         <v>20</v>
       </c>
@@ -873,7 +873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:8" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="15" t="s">
         <v>21</v>
       </c>
@@ -890,7 +890,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="2:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:8" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="15" t="s">
         <v>21</v>
       </c>
@@ -907,7 +907,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="2:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:8" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="15" t="s">
         <v>24</v>
       </c>
@@ -924,7 +924,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="2:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:8" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="15" t="s">
         <v>25</v>
       </c>
@@ -941,7 +941,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="2:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:8" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="15" t="s">
         <v>28</v>
       </c>
@@ -958,7 +958,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="2:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:8" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="15" t="s">
         <v>26</v>
       </c>
@@ -975,24 +975,24 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="2:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:8" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="14"/>
       <c r="C15" s="10"/>
       <c r="D15" s="11"/>
       <c r="E15" s="11"/>
       <c r="G15" s="12"/>
     </row>
-    <row r="18" spans="2:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:5" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C18" s="10"/>
       <c r="D18" s="11"/>
       <c r="E18" s="11"/>
     </row>
-    <row r="19" spans="2:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:5" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C19" s="10"/>
       <c r="D19" s="11"/>
       <c r="E19" s="11"/>
     </row>
-    <row r="20" spans="2:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:5" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="10"/>
       <c r="C20" s="11"/>
       <c r="D20" s="11"/>
